--- a/data/trans_dic/P04B1_1_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P04B1_1_2023-Provincia-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.9218879288818563</v>
+        <v>0.9218879288818567</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.8877148470746459</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8908387137238297</v>
+        <v>0.8896449651058493</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.850933318648285</v>
+        <v>0.8504096609545942</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.878040882395689</v>
+        <v>0.8798621141632306</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9480324491642269</v>
+        <v>0.9463899218151492</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9142029349290911</v>
+        <v>0.9172069657355689</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9224296547670893</v>
+        <v>0.9233838646784426</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.8760839819227404</v>
+        <v>0.8760839819227405</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.8402500248748298</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.8579034015502127</v>
+        <v>0.8579034015502128</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8364098537524545</v>
+        <v>0.8394268424316402</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.805986354693077</v>
+        <v>0.8098142704480181</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8337621293376682</v>
+        <v>0.8358585158051353</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9098672095369524</v>
+        <v>0.9089689903129383</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8690143648740769</v>
+        <v>0.8689073471557595</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8799790093030833</v>
+        <v>0.8787814839871702</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.8247209502431132</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8216379129687604</v>
+        <v>0.8216379129687603</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7750017267235716</v>
+        <v>0.7727335241784737</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7881199932555824</v>
+        <v>0.7892451265768986</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7908416404099828</v>
+        <v>0.7932045925340386</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.855283080696563</v>
+        <v>0.8538114016163123</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8584911935018418</v>
+        <v>0.8574316739937599</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8479825927106365</v>
+        <v>0.8474085626779799</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.8001370627632589</v>
+        <v>0.8001370627632587</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.7620021788241853</v>
+        <v>0.7620021788241854</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7799207877913366</v>
+        <v>0.7799207877913367</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7426678973049621</v>
+        <v>0.7495841283884933</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7161073591924785</v>
+        <v>0.7164708336207549</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7460755778468358</v>
+        <v>0.7458342911928739</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8501793566911542</v>
+        <v>0.849877492138762</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8026503546127611</v>
+        <v>0.7991779910542324</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8126815363856924</v>
+        <v>0.8088304585777339</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.6701647936972798</v>
+        <v>0.67016479369728</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.7807889798609445</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.7286331318557719</v>
+        <v>0.7286331318557718</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.608661721102736</v>
+        <v>0.6125420678286927</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7349617051817112</v>
+        <v>0.7427521116772974</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6924390416138126</v>
+        <v>0.6924354386036191</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7259830902071456</v>
+        <v>0.7261521172443645</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.818584476421787</v>
+        <v>0.8205140377023364</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.764303303304138</v>
+        <v>0.7643743660868478</v>
       </c>
     </row>
     <row r="19">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.8684687615810911</v>
+        <v>0.868468761581091</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.885205344803826</v>
+        <v>0.8852053448038256</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.8767410932219344</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8277359275135329</v>
+        <v>0.8300718379029812</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8496894742605707</v>
+        <v>0.8474903012901777</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8521912628513172</v>
+        <v>0.8521665230470641</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9031299228614059</v>
+        <v>0.9011650905231801</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9149690421756383</v>
+        <v>0.9125558405724997</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9004361528646737</v>
+        <v>0.8988282363897629</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7346821217926606</v>
+        <v>0.7318297610664308</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6648577711728343</v>
+        <v>0.6676849837322261</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7095240261623129</v>
+        <v>0.7067458661466511</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8073879009093539</v>
+        <v>0.7999551542758111</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7266566859918093</v>
+        <v>0.724075637273632</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.753947801813415</v>
+        <v>0.7540016008185838</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1578187719387601</v>
+        <v>0.1569907840496921</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1450329710592936</v>
+        <v>0.1444211930412432</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1567263361613719</v>
+        <v>0.157679174582659</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2144414261594886</v>
+        <v>0.214739986109978</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1927735357441722</v>
+        <v>0.1925011743672084</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1948753693034641</v>
+        <v>0.193883839536073</v>
       </c>
     </row>
     <row r="28">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.6596822535186151</v>
+        <v>0.658816707162635</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.6408152353989711</v>
+        <v>0.6383068542747566</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.6537409373013325</v>
+        <v>0.6531770454819046</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.6924732583786457</v>
+        <v>0.6932604245303104</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.6679772208576721</v>
+        <v>0.6687310537715124</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.6765786255354931</v>
+        <v>0.6756959493363162</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>284039</v>
+        <v>283659</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>268947</v>
+        <v>268781</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>557473</v>
+        <v>558630</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>302275</v>
+        <v>301752</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>288944</v>
+        <v>289893</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>585656</v>
+        <v>586262</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>443838</v>
+        <v>445439</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>440467</v>
+        <v>442559</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>898079</v>
+        <v>900337</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>482818</v>
+        <v>482342</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>474911</v>
+        <v>474853</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>947861</v>
+        <v>946572</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>244895</v>
+        <v>244178</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>280871</v>
+        <v>281272</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>531742</v>
+        <v>533331</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>270263</v>
+        <v>269798</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>305950</v>
+        <v>305572</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>570162</v>
+        <v>569776</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>277123</v>
+        <v>279704</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>301476</v>
+        <v>301629</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>592487</v>
+        <v>592295</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>317240</v>
+        <v>317128</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>337910</v>
+        <v>336448</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>645381</v>
+        <v>642323</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>124291</v>
+        <v>125083</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>168246</v>
+        <v>170029</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>299909</v>
+        <v>299908</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>148248</v>
+        <v>148282</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>187389</v>
+        <v>187830</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>331035</v>
+        <v>331066</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>223380</v>
+        <v>224011</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>224106</v>
+        <v>223526</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>454746</v>
+        <v>454733</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>243727</v>
+        <v>243197</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>241323</v>
+        <v>240687</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>480491</v>
+        <v>479633</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>524400</v>
+        <v>522364</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>507910</v>
+        <v>510070</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1048475</v>
+        <v>1044370</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>576296</v>
+        <v>570990</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>555121</v>
+        <v>553149</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1114121</v>
+        <v>1114200</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>125951</v>
+        <v>125290</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>120570</v>
+        <v>120062</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>255370</v>
+        <v>256923</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>171140</v>
+        <v>171378</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>160259</v>
+        <v>160032</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>317531</v>
+        <v>315915</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>2325085</v>
+        <v>2322034</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>2388874</v>
+        <v>2379523</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>4741204</v>
+        <v>4737114</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2440659</v>
+        <v>2443433</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2490130</v>
+        <v>2492940</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>4906832</v>
+        <v>4900431</v>
       </c>
     </row>
     <row r="40">
